--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_56_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_56_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.923318946623059, 4.498875085407274]</t>
+          <t>[3.9149845126750837, 4.50720951935525]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09913443829057833, 0.3976501146060514]</t>
+          <t>[0.09920383506261476, 0.39758071783401494]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.001634429759338918</v>
+        <v>0.001627097205171735</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001634429759338918</v>
+        <v>0.001627097205171735</v>
       </c>
       <c r="W2" t="n">
         <v>2.864624624624657</v>
